--- a/6-from-vlookup-to-join/vlookup-vs-join.xlsx
+++ b/6-from-vlookup-to-join/vlookup-vs-join.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="demo-vlookup" sheetId="2" r:id="rId1"/>
@@ -286,6 +286,12 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="000\-00\-0000"/>
     </dxf>
     <dxf>
@@ -302,12 +308,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,12 +399,12 @@
     <tableColumn id="2" name="ename"/>
     <tableColumn id="3" name="job"/>
     <tableColumn id="4" name="mgr"/>
-    <tableColumn id="5" name="hiredate" dataDxfId="6"/>
+    <tableColumn id="5" name="hiredate" dataDxfId="2"/>
     <tableColumn id="6" name="sal"/>
     <tableColumn id="7" name="conm"/>
     <tableColumn id="8" name="deptno"/>
-    <tableColumn id="10" name="locno" dataDxfId="5"/>
-    <tableColumn id="11" name="dept_title" dataDxfId="4">
+    <tableColumn id="10" name="locno" dataDxfId="1"/>
+    <tableColumn id="11" name="dept_title" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(emp[[#This Row],[deptno]],dept[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -421,7 +421,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="deptno"/>
     <tableColumn id="2" name="dept_title"/>
-    <tableColumn id="3" name="Column1" dataDxfId="0">
+    <tableColumn id="3" name="Column1" dataDxfId="6">
       <calculatedColumnFormula>INDEX(emp[ename],MATCH(dept[[#This Row],[deptno]],emp[deptno],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -464,10 +464,10 @@
     <tableColumn id="2" name="ename"/>
     <tableColumn id="3" name="job"/>
     <tableColumn id="4" name="mgr"/>
-    <tableColumn id="5" name="hiredate" dataDxfId="3"/>
+    <tableColumn id="5" name="hiredate" dataDxfId="5"/>
     <tableColumn id="6" name="sal"/>
     <tableColumn id="8" name="deptno"/>
-    <tableColumn id="10" name="locno" dataDxfId="2"/>
+    <tableColumn id="10" name="locno" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -495,7 +495,7 @@
   </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" name="empno"/>
-    <tableColumn id="2" name="ssn" dataDxfId="1"/>
+    <tableColumn id="2" name="ssn" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -767,23 +767,23 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" customWidth="1"/>
-    <col min="5" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="7.53515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.3046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.765625" customWidth="1"/>
-    <col min="13" max="13" width="20.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -824,7 +824,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9759</v>
       </c>
@@ -864,7 +864,7 @@
         <v>MALONE</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5156</v>
       </c>
@@ -904,7 +904,7 @@
         <v>KAPOOR</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9844</v>
       </c>
@@ -944,7 +944,7 @@
         <v>FLENDERSON</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4965</v>
       </c>
@@ -984,7 +984,7 @@
         <v>PHILBIN</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5262</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>SCOTT</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1403</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>BEESLY</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8215</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>SCHRUTE</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9735</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>PALMER</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7870</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4460</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>SUPPLIER RELATIONS</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3304</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>ACCOUNTING</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6811</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>ACCOUNTING</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9909</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>SALES</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6395</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>CUSTOMER RELATIONS</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4858</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>HUMAN RESOURCES</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8514</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>MANAGEMENT</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4518</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3891</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>LOGISTICS</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2029</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>MANAGEMENT</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7852</v>
       </c>
@@ -1532,15 +1532,15 @@
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.53515625" customWidth="1"/>
-    <col min="2" max="2" width="12.765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>10017</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>13413</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>18411</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1623,23 +1623,23 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.4609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" customWidth="1"/>
-    <col min="5" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="7.53515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.765625" customWidth="1"/>
-    <col min="11" max="11" width="20.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9759</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>440801399</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5156</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>988281279</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9844</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>620053151</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4965</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>430347111</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5262</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>415711652</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1403</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>448034029</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8215</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>834016607</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9735</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>342477354</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7870</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>863688610</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4460</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>277770447</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3304</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>115952906</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6811</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>544793154</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9909</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>603389521</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6395</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>112298261</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4858</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>259377332</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8514</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>115857502</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4518</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>163099662</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3891</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>895871755</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2029</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>886959630</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>7852</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>192832309</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="M22">
         <v>3245</v>
       </c>
